--- a/Splendor/Environment/Splendor_components/Board_components/Splendor_cards.xlsx
+++ b/Splendor/Environment/Splendor_components/Board_components/Splendor_cards.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\Environment\Splendor_components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Python_Files\Splendor\Environment\Splendor_components\Board_components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6649E-ECBC-4733-81EB-97557CC32425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B4012-64B1-458F-890A-DC7E4B3E25CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23685" yWindow="2265" windowWidth="15120" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25470" yWindow="5280" windowWidth="15120" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tier1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tier2" sheetId="3" r:id="rId2"/>
-    <sheet name="Tier3" sheetId="4" r:id="rId3"/>
-    <sheet name="Nobles" sheetId="5" r:id="rId4"/>
+    <sheet name="tier1" sheetId="1" r:id="rId1"/>
+    <sheet name="tier2" sheetId="3" r:id="rId2"/>
+    <sheet name="tier3" sheetId="4" r:id="rId3"/>
+    <sheet name="nobles" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tier1!$B$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tier1!$B$1:$I$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="13">
   <si>
     <t>Points</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -393,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -430,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -456,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -482,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -508,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -534,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -560,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -586,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -612,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -638,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -664,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -690,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -716,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -742,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -768,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -794,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -820,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -846,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -872,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -898,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -924,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -950,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -976,7 +989,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1002,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1028,7 +1041,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1054,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1080,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1106,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1132,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1158,7 +1171,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1184,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1210,7 +1223,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1236,7 +1249,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1262,7 +1275,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1288,7 +1301,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1314,7 +1327,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1340,7 +1353,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1366,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1392,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1418,7 +1431,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1444,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1509,7 +1522,7 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1535,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1561,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1587,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1613,7 +1626,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1639,7 +1652,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1665,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1691,7 +1704,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1717,7 +1730,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1743,7 +1756,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1769,7 +1782,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1795,7 +1808,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1821,7 +1834,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1847,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1873,7 +1886,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1899,7 +1912,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1925,7 +1938,7 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1951,7 +1964,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1977,7 +1990,7 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2003,7 +2016,7 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2029,7 +2042,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2055,7 +2068,7 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2081,7 +2094,7 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2107,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2133,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2159,7 +2172,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2185,7 +2198,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2211,7 +2224,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2237,7 +2250,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2263,7 +2276,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2328,7 +2341,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2354,7 +2367,7 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2380,7 +2393,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2406,7 +2419,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2432,7 +2445,7 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2458,7 +2471,7 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2484,7 +2497,7 @@
         <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2510,7 +2523,7 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2536,7 +2549,7 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2562,7 +2575,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2588,7 +2601,7 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2614,7 +2627,7 @@
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2640,7 +2653,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2666,7 +2679,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2692,7 +2705,7 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -2718,7 +2731,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2744,7 +2757,7 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2770,7 +2783,7 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2796,7 +2809,7 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2822,7 +2835,7 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2852,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EFF4C-5A62-4F84-A501-5E8E8E55D25C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2887,7 +2900,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2913,7 +2926,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2939,7 +2952,7 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2965,7 +2978,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2991,7 +3004,7 @@
         <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3017,7 +3030,7 @@
         <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3043,7 +3056,7 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3069,7 +3082,7 @@
         <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3095,7 +3108,7 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3121,7 +3134,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>3</v>
